--- a/data/lake-ontario/lake-ontario-spawning.xlsx
+++ b/data/lake-ontario/lake-ontario-spawning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-DegreeDay-Modeling/data/lake-ontario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB1788C-CACB-FE4C-8384-42BD2AF8D0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD02FC2-34FB-8C4C-80B0-9F3DA590A910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="500" windowWidth="17680" windowHeight="19220" xr2:uid="{88D49699-253E-9343-94D7-003220367E12}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="17680" windowHeight="19220" xr2:uid="{88D49699-253E-9343-94D7-003220367E12}"/>
   </bookViews>
   <sheets>
     <sheet name="lake-ontario-spawning" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,14 +468,14 @@
         <v>39027</v>
       </c>
       <c r="B2" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C13" si="0">MONTH(A2)</f>
+        <f>MONTH(A2)</f>
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D13" si="1">DAY(A2)</f>
+        <f>DAY(A2)</f>
         <v>6</v>
       </c>
       <c r="E2">
@@ -500,14 +500,14 @@
         <v>39028</v>
       </c>
       <c r="B3" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" si="0"/>
+        <f>MONTH(A3)</f>
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" si="1"/>
+        <f>DAY(A3)</f>
         <v>7</v>
       </c>
       <c r="E3">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H13" si="2">F3/SUM(E3:G3)</f>
+        <f>F3/SUM(E3:G3)</f>
         <v>0</v>
       </c>
       <c r="I3" t="s">
@@ -532,14 +532,14 @@
         <v>39029</v>
       </c>
       <c r="B4" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f>MONTH(A4)</f>
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="1"/>
+        <f>DAY(A4)</f>
         <v>8</v>
       </c>
       <c r="E4">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f>F4/SUM(E4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -564,14 +564,14 @@
         <v>39030</v>
       </c>
       <c r="B5" s="2">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
+        <f>MONTH(A5)</f>
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
+        <f>DAY(A5)</f>
         <v>9</v>
       </c>
       <c r="E5">
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f>F5/SUM(E5:G5)</f>
         <v>0</v>
       </c>
       <c r="I5" t="s">
@@ -593,31 +593,31 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>40136</v>
+        <v>39049</v>
       </c>
       <c r="B6" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
+        <f>MONTH(A6)</f>
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f>DAY(A6)</f>
+        <v>28</v>
       </c>
       <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
         <v>22</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>F6/SUM(E6:G6)</f>
+        <v>0.62857142857142856</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
@@ -625,63 +625,63 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43795</v>
+        <v>39054</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>MONTH(A7)</f>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>DAY(A7)</f>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>F7/SUM(E7:G7)</f>
+        <v>0.875</v>
       </c>
       <c r="I7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>39049</v>
+        <v>39414</v>
       </c>
       <c r="B8" s="2">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
+        <f>MONTH(A8)</f>
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
+        <f>DAY(A8)</f>
         <v>28</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>0.62857142857142856</v>
+        <f>F8/SUM(E8:G8)</f>
+        <v>0</v>
       </c>
       <c r="I8" t="s">
         <v>8</v>
@@ -689,21 +689,21 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>39414</v>
+        <v>40136</v>
       </c>
       <c r="B9" s="2">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
+        <f>MONTH(A9)</f>
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f>DAY(A9)</f>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f>F9/SUM(E9:G9)</f>
         <v>0</v>
       </c>
       <c r="I9" t="s">
@@ -724,14 +724,14 @@
         <v>42705</v>
       </c>
       <c r="B10" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
+        <f>MONTH(A10)</f>
         <v>12</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
+        <f>DAY(A10)</f>
         <v>1</v>
       </c>
       <c r="E10">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f>F10/SUM(E10:G10)</f>
         <v>1</v>
       </c>
       <c r="I10" t="s">
@@ -753,103 +753,103 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43436</v>
+        <v>42711</v>
       </c>
       <c r="B11" s="2">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
+        <f>MONTH(A11)</f>
         <v>12</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>DAY(A11)</f>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>F11/SUM(E11:G11)</f>
+        <v>0.72499999999999998</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>39054</v>
+        <v>43436</v>
       </c>
       <c r="B12" s="2">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
+        <f>MONTH(A12)</f>
         <v>12</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>DAY(A12)</f>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>0.875</v>
+        <f>F12/SUM(E12:G12)</f>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>42711</v>
+        <v>43795</v>
       </c>
       <c r="B13" s="2">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>MONTH(A13)</f>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>DAY(A13)</f>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>0.72499999999999998</v>
+        <f>F13/SUM(E13:G13)</f>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I15">
-    <sortCondition ref="C1:C15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+    <sortCondition ref="B1:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/lake-ontario/lake-ontario-spawning.xlsx
+++ b/data/lake-ontario/lake-ontario-spawning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-DegreeDay-Modeling/data/lake-ontario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-ontario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD02FC2-34FB-8C4C-80B0-9F3DA590A910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD28B8B-2251-6347-9094-35EAD60C4A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="17680" windowHeight="19220" xr2:uid="{88D49699-253E-9343-94D7-003220367E12}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,11 +471,11 @@
         <v>2007</v>
       </c>
       <c r="C2" s="2">
-        <f>MONTH(A2)</f>
+        <f t="shared" ref="C2:C13" si="0">MONTH(A2)</f>
         <v>11</v>
       </c>
       <c r="D2" s="2">
-        <f>DAY(A2)</f>
+        <f t="shared" ref="D2:D13" si="1">DAY(A2)</f>
         <v>6</v>
       </c>
       <c r="E2">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>F2/SUM(E2:G2)</f>
+        <f t="shared" ref="H2:H13" si="2">F2/SUM(E2:G2)</f>
         <v>0</v>
       </c>
       <c r="I2" t="s">
@@ -503,11 +503,11 @@
         <v>2007</v>
       </c>
       <c r="C3" s="2">
-        <f>MONTH(A3)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D3" s="2">
-        <f>DAY(A3)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E3">
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f>F3/SUM(E3:G3)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I3" t="s">
@@ -535,11 +535,11 @@
         <v>2007</v>
       </c>
       <c r="C4" s="2">
-        <f>MONTH(A4)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D4" s="2">
-        <f>DAY(A4)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="E4">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>F4/SUM(E4:G4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I4" t="s">
@@ -567,11 +567,11 @@
         <v>2007</v>
       </c>
       <c r="C5" s="2">
-        <f>MONTH(A5)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D5" s="2">
-        <f>DAY(A5)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E5">
@@ -584,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <f>F5/SUM(E5:G5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" t="s">
@@ -599,11 +599,11 @@
         <v>2007</v>
       </c>
       <c r="C6" s="2">
-        <f>MONTH(A6)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D6" s="2">
-        <f>DAY(A6)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="E6">
@@ -616,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <f>F6/SUM(E6:G6)</f>
+        <f t="shared" si="2"/>
         <v>0.62857142857142856</v>
       </c>
       <c r="I6" t="s">
@@ -631,11 +631,11 @@
         <v>2007</v>
       </c>
       <c r="C7" s="2">
-        <f>MONTH(A7)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D7" s="2">
-        <f>DAY(A7)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E7">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>F7/SUM(E7:G7)</f>
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
       <c r="I7" t="s">
@@ -663,11 +663,11 @@
         <v>2008</v>
       </c>
       <c r="C8" s="2">
-        <f>MONTH(A8)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D8" s="2">
-        <f>DAY(A8)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="E8">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>F8/SUM(E8:G8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" t="s">
@@ -695,11 +695,11 @@
         <v>2010</v>
       </c>
       <c r="C9" s="2">
-        <f>MONTH(A9)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D9" s="2">
-        <f>DAY(A9)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="E9">
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>F9/SUM(E9:G9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" t="s">
@@ -721,18 +721,18 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>42705</v>
+        <v>42704</v>
       </c>
       <c r="B10" s="2">
         <v>2017</v>
       </c>
       <c r="C10" s="2">
-        <f>MONTH(A10)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
-        <f>DAY(A10)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f>F10/SUM(E10:G10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I10" t="s">
@@ -759,11 +759,11 @@
         <v>2017</v>
       </c>
       <c r="C11" s="2">
-        <f>MONTH(A11)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D11" s="2">
-        <f>DAY(A11)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="E11">
@@ -776,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="H11">
-        <f>F11/SUM(E11:G11)</f>
+        <f t="shared" si="2"/>
         <v>0.72499999999999998</v>
       </c>
       <c r="I11" t="s">
@@ -785,18 +785,18 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43436</v>
+        <v>43435</v>
       </c>
       <c r="B12" s="2">
         <v>2019</v>
       </c>
       <c r="C12" s="2">
-        <f>MONTH(A12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D12" s="2">
-        <f>DAY(A12)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>F12/SUM(E12:G12)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" t="s">
@@ -817,18 +817,18 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43795</v>
+        <v>43794</v>
       </c>
       <c r="B13" s="2">
         <v>2020</v>
       </c>
       <c r="C13" s="2">
-        <f>MONTH(A13)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="D13" s="2">
-        <f>DAY(A13)</f>
-        <v>26</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>F13/SUM(E13:G13)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I13" t="s">

--- a/data/lake-ontario/lake-ontario-spawning.xlsx
+++ b/data/lake-ontario/lake-ontario-spawning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-ontario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD28B8B-2251-6347-9094-35EAD60C4A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F063EB30-2C6B-7E43-A1F0-C99CE4C17899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="17680" windowHeight="19220" xr2:uid="{88D49699-253E-9343-94D7-003220367E12}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>date</t>
   </si>
@@ -51,12 +51,6 @@
     <t>spent</t>
   </si>
   <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>collection</t>
   </si>
   <si>
@@ -67,6 +61,81 @@
   </si>
   <si>
     <t>prop.ripe</t>
+  </si>
+  <si>
+    <t>#/////////////////////////////////////</t>
+  </si>
+  <si>
+    <t># -----START OF METADATA -----</t>
+  </si>
+  <si>
+    <t># ------------------------------------------------</t>
+  </si>
+  <si>
+    <t># TITLE: Biological parameters for temperature-dependent embryo development model</t>
+  </si>
+  <si>
+    <t># DATE: 1-July-2021</t>
+  </si>
+  <si>
+    <t># AUTHOR: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># AUTHOR EMAIL: taylor.stewart@uvm.edu</t>
+  </si>
+  <si>
+    <t># AUTHOR ADDRESS: 3 College St, Burlington VT, 05401 USA</t>
+  </si>
+  <si>
+    <t># AUTHOR WEBSITE: https://taylorstewart.github.io/</t>
+  </si>
+  <si>
+    <t># COLLABORATORS: Matteo Zucchetta; Juha Karjalainen; Chloé Goulon; Orlane Anneville; Mark R. Vinson; Josef Wanzenböck; and Jason D. Stockwell</t>
+  </si>
+  <si>
+    <t># FUNDING SOURCES: USGS #G17AC00042</t>
+  </si>
+  <si>
+    <t># REPOSITORY: https://github.com/taylorstewart/Stewart-et-al-20XX---Coregonine-Embryo-Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># CITATIONS: </t>
+  </si>
+  <si>
+    <t># VARIABLE DESCRIPTION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # year: year class (plus one year from actual spawning date)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # date: date of capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # ripe: number of spawning individuals ripe (actively spawning)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # spent: number of spawning indivudlas spent (post-spawning)</t>
+  </si>
+  <si>
+    <t># ----- END OF METADATA -----</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># ----- START OF DATA -----</t>
+  </si>
+  <si>
+    <t># OWNERSHIP: New York State Department of Environmental Conservation (Mike Connerton)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # mature: number of mature spawning individuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # prop.ripe: proportion of daily spawning individuals actively spawning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # collection: type of collection effort</t>
   </si>
 </sst>
 </file>
@@ -420,436 +489,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9D7E5E-94F0-924C-A139-75D6455954C8}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>39027</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F44" si="0">D33/SUM(C33:E33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>39028</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>39029</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>39030</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C36">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>39049</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C37">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="D37">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.62857142857142856</v>
+      </c>
+      <c r="G37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>39054</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>39027</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:C13" si="0">MONTH(A2)</f>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0.875</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>39414</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C39">
+        <v>34</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>40136</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>42711</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>29</v>
+      </c>
+      <c r="E42">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
-        <f t="shared" ref="D2:D13" si="1">DAY(A2)</f>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="G42" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H13" si="2">F2/SUM(E2:G2)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>39028</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C3" s="2">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43794</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>39029</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>39030</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>39049</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>0.62857142857142856</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>39054</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2007</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="G44" t="s">
         <v>7</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>0.875</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>39414</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2008</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>34</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>40136</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>22</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>42704</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>42711</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2017</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>29</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43435</v>
-      </c>
-      <c r="B12" s="2">
-        <v>2019</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>43794</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2020</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
-    <sortCondition ref="B1:B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:G44">
+    <sortCondition ref="B32:B44"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
